--- a/IFDC_fonctions_texte.xlsx
+++ b/IFDC_fonctions_texte.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1197,10 +1197,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1211,7 @@
     <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>26</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>76</v>
       </c>
@@ -1232,12 +1232,8 @@
       <c r="C2" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F2" t="str">
-        <f>A2 &amp; " " &amp;B2</f>
-        <v xml:space="preserve">Bah  Ibrahima </v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>79</v>
       </c>
@@ -1248,7 +1244,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>79</v>
       </c>
@@ -1259,7 +1255,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>81</v>
       </c>
@@ -1270,7 +1266,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>84</v>
       </c>
@@ -1281,7 +1277,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>86</v>
       </c>
@@ -1292,7 +1288,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>86</v>
       </c>
@@ -1303,7 +1299,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>89</v>
       </c>
@@ -1314,7 +1310,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>91</v>
       </c>
@@ -1325,7 +1321,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>94</v>
       </c>
@@ -1336,7 +1332,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>96</v>
       </c>
@@ -1347,7 +1343,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>99</v>
       </c>
@@ -1358,7 +1354,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>101</v>
       </c>
@@ -1369,7 +1365,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>104</v>
       </c>
@@ -1380,7 +1376,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>106</v>
       </c>
